--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/2/Funkeln/Assets/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9FBD4C-E32A-8341-BAC9-5D701921BF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C8D3D7-0502-4DE1-89C4-FC1742CC27D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="3400" windowWidth="17280" windowHeight="8960" activeTab="5" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -197,13 +197,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -222,7 +222,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -519,15 +519,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -841,19 +841,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29" thickBot="1">
+    <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" thickBot="1">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29" thickBot="1">
+    <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" thickBot="1">
+    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" thickBot="1">
+    <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>101000</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" thickBot="1">
+    <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>102000</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" thickBot="1">
+    <row r="7" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>103000</v>
       </c>
@@ -1197,12 +1197,12 @@
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29" thickBot="1">
+    <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" thickBot="1">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" thickBot="1">
+    <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>104000</v>
       </c>
@@ -1358,17 +1358,17 @@
       <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" customWidth="1"/>
+    <col min="8" max="8" width="17.296875" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" thickBot="1">
+    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
+    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" thickBot="1">
+    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1513,16 +1513,16 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.796875" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" thickBot="1">
+    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
@@ -1608,17 +1608,17 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" customWidth="1"/>
+    <col min="8" max="8" width="12.796875" customWidth="1"/>
+    <col min="9" max="10" width="15.19921875" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" customWidth="1"/>
+    <col min="12" max="12" width="10.69921875" customWidth="1"/>
+    <col min="13" max="13" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31" thickBot="1">
+    <row r="1" spans="1:13" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
+    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" thickBot="1">
+    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -1693,24 +1693,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A86A2C4-3076-4BE9-9FDF-DEF5E5E28885}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.796875" customWidth="1"/>
+    <col min="15" max="15" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" thickBot="1">
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>36</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
+    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>37</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -1801,7 +1801,7 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -1813,7 +1813,7 @@
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -1825,7 +1825,7 @@
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -1837,7 +1837,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -1849,7 +1849,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1861,7 +1861,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1873,7 +1873,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -1885,7 +1885,7 @@
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -1897,7 +1897,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -1909,7 +1909,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -1921,7 +1921,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -1933,7 +1933,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -1945,7 +1945,7 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -1957,7 +1957,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -1969,7 +1969,7 @@
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -1981,7 +1981,7 @@
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -1993,7 +1993,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -2005,7 +2005,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -2017,7 +2017,7 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -2029,7 +2029,7 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -2041,7 +2041,7 @@
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -2053,7 +2053,7 @@
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -2065,7 +2065,7 @@
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -2077,7 +2077,7 @@
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -2089,7 +2089,7 @@
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -2101,7 +2101,7 @@
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -2113,7 +2113,7 @@
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C8D3D7-0502-4DE1-89C4-FC1742CC27D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812DBE4E-88F1-49B1-AD99-C6A4DD90850F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -190,6 +190,26 @@
   </si>
   <si>
     <t>CriticalDMG</t>
+  </si>
+  <si>
+    <t>patternID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SkillID1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SkillID2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SkillID3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SkillID4</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -443,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +544,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -853,7 +879,7 @@
     <col min="8" max="8" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,8 +925,23 @@
       <c r="O1" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -946,8 +987,23 @@
       <c r="O2" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>2</v>
+      </c>
+      <c r="R2" s="28">
+        <v>3</v>
+      </c>
+      <c r="S2" s="28">
+        <v>4</v>
+      </c>
+      <c r="T2" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -994,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1041,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>101000</v>
       </c>
@@ -1088,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>102000</v>
       </c>
@@ -1135,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>103000</v>
       </c>
@@ -1191,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1202,7 +1258,7 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,8 +1304,23 @@
       <c r="O1" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
@@ -1296,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>104000</v>
       </c>

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812DBE4E-88F1-49B1-AD99-C6A4DD90850F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BD6982-69A6-CB45-84DC-669B3C8676D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -210,6 +210,9 @@
   <si>
     <t>SkillID4</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SkillID1</t>
   </si>
 </sst>
 </file>
@@ -217,13 +220,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -242,7 +245,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -539,10 +542,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,7 +556,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,7 +572,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -867,19 +870,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>44</v>
@@ -941,7 +944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -988,22 +991,22 @@
         <v>5</v>
       </c>
       <c r="P2" s="28">
-        <v>1</v>
+        <v>9001000</v>
       </c>
       <c r="Q2" s="28">
-        <v>2</v>
+        <v>9001000</v>
       </c>
       <c r="R2" s="28">
-        <v>3</v>
+        <v>9001000</v>
       </c>
       <c r="S2" s="28">
-        <v>4</v>
+        <v>9001000</v>
       </c>
       <c r="T2" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8001000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="29" thickBot="1">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -1049,8 +1052,23 @@
       <c r="O3" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="R3" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="S3" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="T3" s="28">
+        <v>8001000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16" thickBot="1">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1097,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="16" thickBot="1">
       <c r="A5" s="4">
         <v>101000</v>
       </c>
@@ -1144,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="16" thickBot="1">
       <c r="A6" s="4">
         <v>102000</v>
       </c>
@@ -1191,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16" thickBot="1">
       <c r="A7" s="4">
         <v>103000</v>
       </c>
@@ -1249,16 +1267,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="16" thickBot="1">
       <c r="A3" s="11">
         <v>104000</v>
       </c>
@@ -1429,17 +1447,17 @@
       <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" customWidth="1"/>
-    <col min="8" max="8" width="17.296875" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -1510,7 +1528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1584,16 +1602,16 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.296875" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="17.796875" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
@@ -1679,17 +1697,17 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.296875" customWidth="1"/>
-    <col min="8" max="8" width="12.796875" customWidth="1"/>
-    <col min="9" max="10" width="15.19921875" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" customWidth="1"/>
-    <col min="13" max="13" width="10.296875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="10" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="31" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1738,7 +1756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1746,7 +1764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -1768,20 +1786,20 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.19921875" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="15.796875" customWidth="1"/>
-    <col min="15" max="15" width="16.796875" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
         <v>36</v>
       </c>
@@ -1841,7 +1859,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
         <v>37</v>
       </c>
@@ -1860,7 +1878,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13">
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -1872,7 +1890,7 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13">
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -1884,7 +1902,7 @@
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -1896,7 +1914,7 @@
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13">
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -1908,7 +1926,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13">
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -1920,7 +1938,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13">
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1932,7 +1950,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13">
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1944,7 +1962,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13">
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -1956,7 +1974,7 @@
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13">
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -1968,7 +1986,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13">
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -1980,7 +1998,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13">
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -1992,7 +2010,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13">
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -2004,7 +2022,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13">
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -2016,7 +2034,7 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:12">
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -2028,7 +2046,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:12">
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -2040,7 +2058,7 @@
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:12">
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -2052,7 +2070,7 @@
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:12">
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -2064,7 +2082,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:12">
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -2076,7 +2094,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:12">
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -2088,7 +2106,7 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:12">
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -2100,7 +2118,7 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:12">
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -2112,7 +2130,7 @@
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:12">
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -2124,7 +2142,7 @@
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:12">
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -2136,7 +2154,7 @@
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:12">
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -2148,7 +2166,7 @@
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:12">
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -2160,7 +2178,7 @@
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:12">
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -2172,7 +2190,7 @@
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:12">
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -2184,7 +2202,7 @@
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:12">
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BD6982-69A6-CB45-84DC-669B3C8676D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4F65DB-13F0-DE4C-9F02-4AC24C3B4859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>SkillID1</t>
+  </si>
+  <si>
+    <t>サファイア</t>
   </si>
 </sst>
 </file>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -887,61 +887,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>41</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16" thickBot="1">
@@ -1167,13 +1167,13 @@
         <v>102000</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6">
         <v>10000</v>
       </c>
       <c r="D6" s="6">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="E6" s="6">
         <v>1000</v>
@@ -1185,7 +1185,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="6">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I6" s="6">
         <v>1000</v>
@@ -1207,6 +1207,21 @@
       </c>
       <c r="O6" s="7">
         <v>5</v>
+      </c>
+      <c r="P6" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="R6" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="S6" s="28">
+        <v>9102000</v>
+      </c>
+      <c r="T6" s="28">
+        <v>8102000</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="16" thickBot="1">
@@ -1214,7 +1229,7 @@
         <v>103000</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <v>10000</v>
@@ -1281,61 +1296,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>41</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16" thickBot="1">
@@ -1343,7 +1358,7 @@
         <v>4000</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6">
         <v>3000</v>
@@ -1390,7 +1405,7 @@
         <v>104000</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="13">
         <v>50000</v>
@@ -1462,40 +1477,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
@@ -1504,10 +1519,10 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="19">
         <v>25</v>
@@ -1519,13 +1534,13 @@
         <v>10</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
@@ -1534,10 +1549,10 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="19">
         <v>25</v>
@@ -1549,13 +1564,13 @@
         <v>10</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1">
@@ -1564,13 +1579,13 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="18">
         <v>20</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="19">
         <v>25</v>
@@ -1616,40 +1631,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
@@ -1658,10 +1673,10 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="19">
         <v>25</v>
@@ -1670,7 +1685,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="19">
         <v>50</v>
@@ -1712,64 +1727,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1804,45 +1819,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="25">
         <v>50</v>
@@ -1861,7 +1876,7 @@
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25">

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4F65DB-13F0-DE4C-9F02-4AC24C3B4859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23536275-E1FE-8644-8C75-25F960760468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -102,9 +102,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>エネミー</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -213,6 +210,12 @@
   </si>
   <si>
     <t>サファイア</t>
+  </si>
+  <si>
+    <t>エネミーMelee</t>
+  </si>
+  <si>
+    <t>エネミーRange</t>
   </si>
 </sst>
 </file>
@@ -870,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -887,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -908,10 +911,10 @@
         <v>11</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>13</v>
@@ -923,25 +926,25 @@
         <v>15</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="27" t="s">
-        <v>45</v>
-      </c>
       <c r="T1" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16" thickBot="1">
@@ -1167,7 +1170,7 @@
         <v>102000</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6">
         <v>10000</v>
@@ -1280,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1296,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1317,10 +1320,10 @@
         <v>11</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>13</v>
@@ -1332,33 +1335,33 @@
         <v>15</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="27" t="s">
-        <v>45</v>
-      </c>
       <c r="T1" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="16" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="29" thickBot="1">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C2" s="6">
         <v>3000</v>
@@ -1367,10 +1370,10 @@
         <v>500</v>
       </c>
       <c r="E2" s="6">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F2" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="6">
         <v>100</v>
@@ -1399,51 +1402,128 @@
       <c r="O2" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="16" thickBot="1">
-      <c r="A3" s="11">
+      <c r="P2" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="R2" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="S2" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="T2" s="28">
+        <v>8001000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="29" thickBot="1">
+      <c r="A3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="6">
+        <v>400</v>
+      </c>
+      <c r="E3" s="6">
+        <v>250</v>
+      </c>
+      <c r="F3" s="6">
+        <v>100</v>
+      </c>
+      <c r="G3" s="6">
+        <v>100</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="7">
+        <v>100</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>5</v>
+      </c>
+      <c r="N3" s="6">
+        <v>50</v>
+      </c>
+      <c r="O3" s="7">
+        <v>5</v>
+      </c>
+      <c r="P3" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="R3" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="S3" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="T3" s="28">
+        <v>8001000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16" thickBot="1">
+      <c r="A4" s="11">
         <v>104000</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13">
         <v>50000</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D4" s="13">
         <v>2000</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E4" s="13">
         <v>500</v>
       </c>
-      <c r="F3" s="13">
-        <v>100</v>
-      </c>
-      <c r="G3" s="13">
-        <v>100</v>
-      </c>
-      <c r="H3" s="13">
-        <v>100</v>
-      </c>
-      <c r="I3" s="13">
+      <c r="F4" s="13">
+        <v>100</v>
+      </c>
+      <c r="G4" s="13">
+        <v>100</v>
+      </c>
+      <c r="H4" s="13">
+        <v>100</v>
+      </c>
+      <c r="I4" s="13">
         <v>1000</v>
       </c>
-      <c r="J3" s="14">
-        <v>100</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="J4" s="14">
+        <v>100</v>
+      </c>
+      <c r="K4" s="13">
         <v>1</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L4" s="13">
         <v>80</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M4" s="13">
         <v>5</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N4" s="13">
         <v>50</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O4" s="14">
         <v>5</v>
       </c>
     </row>
@@ -1477,40 +1557,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
@@ -1519,10 +1599,10 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="19">
         <v>25</v>
@@ -1534,13 +1614,13 @@
         <v>10</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
@@ -1549,10 +1629,10 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="19">
         <v>25</v>
@@ -1564,13 +1644,13 @@
         <v>10</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1">
@@ -1579,13 +1659,13 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="18">
         <v>20</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="19">
         <v>25</v>
@@ -1631,40 +1711,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
@@ -1673,10 +1753,10 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="19">
         <v>25</v>
@@ -1685,7 +1765,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="19">
         <v>50</v>
@@ -1727,64 +1807,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1819,45 +1899,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="25">
         <v>50</v>
@@ -1876,7 +1956,7 @@
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25">

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23536275-E1FE-8644-8C75-25F960760468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D6D5AC-16E6-974C-A1C8-61CF5F6F8EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1164,6 +1164,21 @@
       <c r="O5" s="7">
         <v>5</v>
       </c>
+      <c r="P5" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="R5" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="S5" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="T5" s="28">
+        <v>8001000</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="16" thickBot="1">
       <c r="A6" s="4">
@@ -1285,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D6D5AC-16E6-974C-A1C8-61CF5F6F8EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1DC7B5-13F4-1042-8F33-79ACF0C3272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
     <t>支援キャラ</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Attack</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>エネミーRange</t>
+  </si>
+  <si>
+    <t>ルビ</t>
+  </si>
+  <si>
+    <t>エメ</t>
   </si>
 </sst>
 </file>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:T5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -890,61 +890,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>38</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16" thickBot="1">
@@ -1123,7 +1123,7 @@
         <v>101000</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6">
         <v>10000</v>
@@ -1174,10 +1174,10 @@
         <v>9001000</v>
       </c>
       <c r="S5" s="28">
-        <v>9001000</v>
+        <v>9101000</v>
       </c>
       <c r="T5" s="28">
-        <v>8001000</v>
+        <v>8101000</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="16" thickBot="1">
@@ -1185,7 +1185,7 @@
         <v>102000</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6">
         <v>10000</v>
@@ -1247,7 +1247,7 @@
         <v>103000</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6">
         <v>10000</v>
@@ -1265,7 +1265,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="6">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I7" s="6">
         <v>1000</v>
@@ -1287,6 +1287,21 @@
       </c>
       <c r="O7" s="7">
         <v>5</v>
+      </c>
+      <c r="P7" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="R7" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="S7" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="T7" s="28">
+        <v>8103000</v>
       </c>
     </row>
   </sheetData>
@@ -1300,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1314,61 +1329,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>38</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="29" thickBot="1">
@@ -1376,7 +1391,7 @@
         <v>4000</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6">
         <v>3000</v>
@@ -1438,7 +1453,7 @@
         <v>5000</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6">
         <v>3000</v>
@@ -1500,7 +1515,7 @@
         <v>104000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="13">
         <v>50000</v>
@@ -1540,6 +1555,21 @@
       </c>
       <c r="O4" s="14">
         <v>5</v>
+      </c>
+      <c r="P4" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="R4" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="S4" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="T4" s="28">
+        <v>8001000</v>
       </c>
     </row>
   </sheetData>
@@ -1572,40 +1602,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
@@ -1614,10 +1644,10 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="19">
         <v>25</v>
@@ -1629,13 +1659,13 @@
         <v>10</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
@@ -1644,10 +1674,10 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="19">
         <v>25</v>
@@ -1659,13 +1689,13 @@
         <v>10</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1">
@@ -1674,13 +1704,13 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="18">
         <v>20</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="19">
         <v>25</v>
@@ -1726,40 +1756,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
@@ -1768,10 +1798,10 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="19">
         <v>25</v>
@@ -1780,7 +1810,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="19">
         <v>50</v>
@@ -1822,64 +1852,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1914,45 +1944,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="25">
         <v>50</v>
@@ -1971,7 +2001,7 @@
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25">

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1DC7B5-13F4-1042-8F33-79ACF0C3272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC7945-7ABC-074E-A432-A6BB7944539D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
@@ -873,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1569,7 +1569,7 @@
         <v>9002000</v>
       </c>
       <c r="T4" s="28">
-        <v>8001000</v>
+        <v>8104000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC7945-7ABC-074E-A432-A6BB7944539D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299C11A5-D5D5-0747-B4AB-F612F0E4BAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1129,10 +1129,10 @@
         <v>10000</v>
       </c>
       <c r="D5" s="6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="E5" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F5" s="6">
         <v>100</v>
@@ -1191,7 +1191,7 @@
         <v>10000</v>
       </c>
       <c r="D6" s="6">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="6">
         <v>1000</v>
@@ -1315,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC7945-7ABC-074E-A432-A6BB7944539D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6683993F-D921-4F4D-979F-9E5252481264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>エメ</t>
+  </si>
+  <si>
+    <t>BossFlag</t>
   </si>
 </sst>
 </file>
@@ -1313,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1324,7 +1327,7 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29" thickBot="1">
+    <row r="1" spans="1:21" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1385,8 +1388,11 @@
       <c r="T1" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="29" thickBot="1">
+      <c r="U1" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="29" thickBot="1">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
@@ -1447,8 +1453,11 @@
       <c r="T2" s="28">
         <v>8001000</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="29" thickBot="1">
+      <c r="U2" s="28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="29" thickBot="1">
       <c r="A3" s="4">
         <v>5000</v>
       </c>
@@ -1509,8 +1518,11 @@
       <c r="T3" s="28">
         <v>8001000</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="16" thickBot="1">
+      <c r="U3" s="28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16" thickBot="1">
       <c r="A4" s="11">
         <v>104000</v>
       </c>
@@ -1570,6 +1582,9 @@
       </c>
       <c r="T4" s="28">
         <v>8104000</v>
+      </c>
+      <c r="U4" s="28" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6683993F-D921-4F4D-979F-9E5252481264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC641937-EA98-E64E-89DE-1F7959FBAC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1171,13 +1171,13 @@
         <v>9001000</v>
       </c>
       <c r="Q5" s="28">
-        <v>9001000</v>
+        <v>9101100</v>
       </c>
       <c r="R5" s="28">
         <v>9001000</v>
       </c>
       <c r="S5" s="28">
-        <v>9101000</v>
+        <v>9101100</v>
       </c>
       <c r="T5" s="28">
         <v>8101000</v>
@@ -1233,13 +1233,13 @@
         <v>9001000</v>
       </c>
       <c r="Q6" s="28">
-        <v>9001000</v>
+        <v>9102100</v>
       </c>
       <c r="R6" s="28">
         <v>9001000</v>
       </c>
       <c r="S6" s="28">
-        <v>9102000</v>
+        <v>9102100</v>
       </c>
       <c r="T6" s="28">
         <v>8102000</v>
@@ -1295,7 +1295,7 @@
         <v>9002000</v>
       </c>
       <c r="Q7" s="28">
-        <v>9002000</v>
+        <v>9103100</v>
       </c>
       <c r="R7" s="28">
         <v>9002000</v>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC641937-EA98-E64E-89DE-1F7959FBAC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937988FF-161F-A14F-8532-CA53D56350AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="17280" windowHeight="8960" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="23360" windowHeight="12460" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>BossFlag</t>
+  </si>
+  <si>
+    <t>ルビ-Dummy</t>
+  </si>
+  <si>
+    <t>サファイア--Dummy</t>
+  </si>
+  <si>
+    <t>エメ--Dummy</t>
   </si>
 </sst>
 </file>
@@ -876,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1129,13 +1138,13 @@
         <v>47</v>
       </c>
       <c r="C5" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D5" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="6">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F5" s="6">
         <v>100</v>
@@ -1191,13 +1200,13 @@
         <v>44</v>
       </c>
       <c r="C6" s="6">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="D6" s="6">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E6" s="6">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F6" s="6">
         <v>100</v>
@@ -1253,13 +1262,13 @@
         <v>48</v>
       </c>
       <c r="C7" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D7" s="6">
         <v>1000</v>
       </c>
       <c r="E7" s="6">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="F7" s="6">
         <v>100</v>
@@ -1316,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1585,6 +1594,201 @@
       </c>
       <c r="U4" s="28" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="29" thickBot="1">
+      <c r="A5" s="4">
+        <v>105000</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>500</v>
+      </c>
+      <c r="F5" s="6">
+        <v>100</v>
+      </c>
+      <c r="G5" s="6">
+        <v>100</v>
+      </c>
+      <c r="H5" s="6">
+        <v>100</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="7">
+        <v>100</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6">
+        <v>80</v>
+      </c>
+      <c r="M5" s="6">
+        <v>5</v>
+      </c>
+      <c r="N5" s="6">
+        <v>50</v>
+      </c>
+      <c r="O5" s="7">
+        <v>5</v>
+      </c>
+      <c r="P5" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>9101100</v>
+      </c>
+      <c r="R5" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="S5" s="28">
+        <v>9101100</v>
+      </c>
+      <c r="T5" s="28">
+        <v>8105000</v>
+      </c>
+      <c r="U5" s="28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="43" thickBot="1">
+      <c r="A6" s="4">
+        <v>106000</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="6">
+        <v>700</v>
+      </c>
+      <c r="E6" s="6">
+        <v>500</v>
+      </c>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="6">
+        <v>100</v>
+      </c>
+      <c r="H6" s="6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="7">
+        <v>100</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6">
+        <v>80</v>
+      </c>
+      <c r="M6" s="6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6">
+        <v>50</v>
+      </c>
+      <c r="O6" s="7">
+        <v>5</v>
+      </c>
+      <c r="P6" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>9102100</v>
+      </c>
+      <c r="R6" s="28">
+        <v>9001000</v>
+      </c>
+      <c r="S6" s="28">
+        <v>9102100</v>
+      </c>
+      <c r="T6" s="28">
+        <v>8106000</v>
+      </c>
+      <c r="U6" s="28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="29" thickBot="1">
+      <c r="A7" s="4">
+        <v>107000</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="6">
+        <v>500</v>
+      </c>
+      <c r="F7" s="6">
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <v>100</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="7">
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3</v>
+      </c>
+      <c r="L7" s="6">
+        <v>80</v>
+      </c>
+      <c r="M7" s="6">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6">
+        <v>50</v>
+      </c>
+      <c r="O7" s="7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>9103100</v>
+      </c>
+      <c r="R7" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="S7" s="28">
+        <v>9002000</v>
+      </c>
+      <c r="T7" s="28">
+        <v>8107000</v>
+      </c>
+      <c r="U7" s="28" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/XlsFile/DataTable_pre.xlsx
+++ b/Assets/DataTable/XlsFile/DataTable_pre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Assets/DataTable/XlsFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\制作\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937988FF-161F-A14F-8532-CA53D56350AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4B8B45-CF08-40CC-BEBA-B89F202111CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="23360" windowHeight="12460" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>×</t>
   </si>
   <si>
@@ -203,18 +200,12 @@
     <t>SkillID1</t>
   </si>
   <si>
-    <t>サファイア</t>
-  </si>
-  <si>
     <t>エネミーMelee</t>
   </si>
   <si>
     <t>エネミーRange</t>
   </si>
   <si>
-    <t>ルビ</t>
-  </si>
-  <si>
     <t>エメ</t>
   </si>
   <si>
@@ -228,6 +219,18 @@
   </si>
   <si>
     <t>エメ--Dummy</t>
+  </si>
+  <si>
+    <t>アイト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レイ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スピネル</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -235,13 +238,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -260,7 +263,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -276,6 +279,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -481,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,9 +528,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -557,10 +564,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,9 +576,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,7 +600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -885,24 +898,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29" thickBot="1">
+    <row r="1" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -923,10 +936,10 @@
         <v>9</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>11</v>
@@ -938,28 +951,28 @@
         <v>13</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="27" t="s">
+      <c r="P1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="16" thickBot="1">
+      <c r="T1" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -1005,23 +1018,23 @@
       <c r="O2" s="7">
         <v>5</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="27">
         <v>9001000</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="27">
         <v>9001000</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="27">
         <v>9001000</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="27">
         <v>9001000</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <v>8001000</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="29" thickBot="1">
+    <row r="3" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -1067,23 +1080,23 @@
       <c r="O3" s="7">
         <v>5</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="27">
         <v>9002000</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="27">
         <v>9002000</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="27">
         <v>9002000</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="27">
         <v>9002000</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <v>8001000</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16" thickBot="1">
+    <row r="4" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1130,12 +1143,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16" thickBot="1">
+    <row r="5" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>101000</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
+      <c r="B5" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="6">
         <v>20000</v>
@@ -1176,28 +1189,28 @@
       <c r="O5" s="7">
         <v>5</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="27">
         <v>9001000</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="27">
         <v>9101100</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="27">
         <v>9001000</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="27">
         <v>9101100</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="27">
         <v>8101000</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16" thickBot="1">
+    <row r="6" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>102000</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>44</v>
+      <c r="B6" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="6">
         <v>25000</v>
@@ -1238,28 +1251,28 @@
       <c r="O6" s="7">
         <v>5</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="27">
         <v>9001000</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="27">
         <v>9102100</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="27">
         <v>9001000</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="27">
         <v>9102100</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="27">
         <v>8102000</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16" thickBot="1">
+    <row r="7" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>103000</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6">
         <v>20000</v>
@@ -1300,19 +1313,19 @@
       <c r="O7" s="7">
         <v>5</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="27">
         <v>9002000</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="27">
         <v>9103100</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="27">
         <v>9002000</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <v>9002000</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="27">
         <v>8103000</v>
       </c>
     </row>
@@ -1327,21 +1340,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="29" thickBot="1">
+    <row r="1" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1362,10 +1375,10 @@
         <v>9</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>11</v>
@@ -1377,36 +1390,36 @@
         <v>13</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="29" thickBot="1">
+      <c r="T1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6">
         <v>3000</v>
@@ -1447,31 +1460,31 @@
       <c r="O2" s="7">
         <v>5</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="27">
         <v>9001000</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="27">
         <v>9001000</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="27">
         <v>9001000</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="27">
         <v>9001000</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <v>8001000</v>
       </c>
-      <c r="U2" s="28" t="b">
+      <c r="U2" s="27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="29" thickBot="1">
+    <row r="3" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>5000</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6">
         <v>3000</v>
@@ -1512,96 +1525,96 @@
       <c r="O3" s="7">
         <v>5</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="27">
         <v>9002000</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="27">
         <v>9002000</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="27">
         <v>9002000</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="27">
         <v>9002000</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <v>8001000</v>
       </c>
-      <c r="U3" s="28" t="b">
+      <c r="U3" s="27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16" thickBot="1">
+    <row r="4" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>104000</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="13">
-        <v>50000</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="D4" s="12">
         <v>2000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>500</v>
       </c>
-      <c r="F4" s="13">
-        <v>100</v>
-      </c>
-      <c r="G4" s="13">
-        <v>100</v>
-      </c>
-      <c r="H4" s="13">
-        <v>100</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="F4" s="12">
+        <v>100</v>
+      </c>
+      <c r="G4" s="12">
+        <v>100</v>
+      </c>
+      <c r="H4" s="12">
+        <v>100</v>
+      </c>
+      <c r="I4" s="12">
         <v>1000</v>
       </c>
-      <c r="J4" s="14">
-        <v>100</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="J4" s="13">
+        <v>100</v>
+      </c>
+      <c r="K4" s="12">
         <v>1</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>80</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>5</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>50</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="13">
         <v>5</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="27">
         <v>9002000</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="27">
         <v>9002000</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="27">
         <v>9002000</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="27">
         <v>9002000</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="27">
         <v>8104000</v>
       </c>
-      <c r="U4" s="28" t="b">
+      <c r="U4" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="29" thickBot="1">
+    <row r="5" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>105000</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6">
         <v>10000</v>
@@ -1642,31 +1655,31 @@
       <c r="O5" s="7">
         <v>5</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="27">
         <v>9001000</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="27">
         <v>9101100</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="27">
         <v>9001000</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="27">
         <v>9101100</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="27">
         <v>8105000</v>
       </c>
-      <c r="U5" s="28" t="b">
+      <c r="U5" s="27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="43" thickBot="1">
+    <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>106000</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6">
         <v>10000</v>
@@ -1707,31 +1720,31 @@
       <c r="O6" s="7">
         <v>5</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="27">
         <v>9001000</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="27">
         <v>9102100</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="27">
         <v>9001000</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="27">
         <v>9102100</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="27">
         <v>8106000</v>
       </c>
-      <c r="U6" s="28" t="b">
+      <c r="U6" s="27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="29" thickBot="1">
+    <row r="7" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>107000</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6">
         <v>10000</v>
@@ -1772,22 +1785,22 @@
       <c r="O7" s="7">
         <v>5</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="27">
         <v>9002000</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="27">
         <v>9103100</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="27">
         <v>9002000</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <v>9002000</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="27">
         <v>8107000</v>
       </c>
-      <c r="U7" s="28" t="b">
+      <c r="U7" s="27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1806,144 +1819,144 @@
       <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" thickBot="1">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
+    </row>
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="B2" s="23"/>
+      <c r="C2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="18">
         <v>25</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>25</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>10</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
+      <c r="H2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="B3" s="23"/>
+      <c r="C3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="18">
         <v>25</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>25</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>10</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16" thickBot="1">
+      <c r="H3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="B4" s="23"/>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17">
         <v>20</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="E4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="18">
         <v>25</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>10</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>25</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>25</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="19">
         <v>10</v>
       </c>
     </row>
@@ -1961,83 +1974,83 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" thickBot="1">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
+    </row>
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="B2" s="23"/>
+      <c r="C2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="18">
         <v>25</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>25</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="19">
+      <c r="G2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="18">
         <v>50</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <v>50</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <v>20</v>
       </c>
     </row>
@@ -2056,79 +2069,79 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="10" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31" thickBot="1">
+    <row r="1" spans="1:13" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="E2" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16" thickBot="1">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>17</v>
+      <c r="E4" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2145,433 +2158,433 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" thickBot="1">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
-      <c r="B2" t="s">
+      <c r="C2" s="24">
+        <v>50</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
+        <v>50</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24">
         <v>50</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25">
-        <v>50</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25">
-        <v>50</v>
-      </c>
-      <c r="E3" s="25">
-        <v>100</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="3:12">
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="3:12">
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="3:12">
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="3:12">
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" spans="3:12">
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
+      <c r="E3" s="24">
+        <v>100</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
